--- a/results_data/rpi_ppsn/consumo_raspberry_pi.xlsx
+++ b/results_data/rpi_ppsn/consumo_raspberry_pi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="296" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="389" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen datos" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>Fitness</t>
   </si>
@@ -73,7 +73,13 @@
     <t>Energy</t>
   </si>
   <si>
+    <t>Valor referencia</t>
+  </si>
+  <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>Exceso</t>
   </si>
   <si>
     <t>error estándar</t>
@@ -145,12 +151,14 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00000000"/>
@@ -211,7 +219,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
@@ -221,6 +229,9 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
@@ -316,10 +327,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="C4" s="0" t="s">
         <v>0</v>
       </c>
@@ -333,7 +344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="B5" s="0" t="n">
         <v>100</v>
       </c>
@@ -346,15 +357,15 @@
         <v>7.77129036666667</v>
       </c>
       <c r="E5" s="1" t="n">
-        <f aca="false">500G_100I!E37</f>
-        <v>20.5</v>
+        <f aca="false">500G_100I!I37</f>
+        <v>0.500000000000004</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="false">500G_100I!F37</f>
-        <v>159.311452516667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+        <f aca="false">500G_100I!M37</f>
+        <v>3.88564518333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="C6" s="1" t="n">
         <f aca="false">500G_100I!C38</f>
         <v>0.651749781570947</v>
@@ -368,11 +379,11 @@
         <v>0.0603256021946723</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">500G_100I!F38</f>
-        <v>26.9552630545446</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+        <f aca="false">500G_100I!M38</f>
+        <v>0.657445440354746</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="B7" s="0" t="n">
         <v>200</v>
       </c>
@@ -385,15 +396,15 @@
         <v>19.9095393666667</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="false">500G_200I!E37</f>
-        <v>20.5</v>
+        <f aca="false">500G_200I!I37</f>
+        <v>0.499999999999996</v>
       </c>
       <c r="F7" s="1" t="n">
-        <f aca="false">500G_200I!F37</f>
-        <v>408.145557016667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <f aca="false">500G_200I!M37</f>
+        <v>9.95476968333334</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="C8" s="1" t="n">
         <f aca="false">500G_200I!C38</f>
         <v>0.6806587223391</v>
@@ -407,11 +418,11 @@
         <v>0.0345255519594804</v>
       </c>
       <c r="F8" s="1" t="n">
-        <f aca="false">500G_200I!F38</f>
-        <v>49.3781249573875</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+        <f aca="false">500G_200I!M38</f>
+        <v>1.20434451115579</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="B9" s="0" t="n">
         <v>400</v>
       </c>
@@ -424,54 +435,54 @@
         <v>46.2172237</v>
       </c>
       <c r="E9" s="1" t="n">
-        <f aca="false">500G_400I!E37</f>
-        <v>20.5</v>
+        <f aca="false">500G_400I!I37</f>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <f aca="false">500G_400I!F37</f>
-        <v>947.45308585</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+        <f aca="false">500G_400I!M37</f>
+        <v>23.10861185</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="C10" s="1" t="n">
-        <f aca="false">500G_400I!C38</f>
-        <v>0.522671201794384</v>
+        <f aca="false">500G_200I!C38</f>
+        <v>0.6806587223391</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">500G_400I!D38</f>
         <v>4.00693301879226</v>
       </c>
       <c r="E10" s="1" t="n">
-        <f aca="false">500G_400I!E38</f>
-        <v>0.0260606980638117</v>
+        <f aca="false">500G_500I!E38</f>
+        <v>0.0228337814375679</v>
       </c>
       <c r="F10" s="1" t="n">
-        <f aca="false">500G_400I!F38</f>
-        <v>82.1421268852413</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+        <f aca="false">500G_400I!M38</f>
+        <v>2.00346650939613</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="B11" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C11" s="1" t="n">
-        <f aca="false">500G_500I!C37</f>
-        <v>61.1666666666667</v>
+        <f aca="false">500G_400I!C37</f>
+        <v>60.2666666666667</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">500G_500I!D37</f>
         <v>61.1021890666667</v>
       </c>
       <c r="E11" s="1" t="n">
-        <f aca="false">500G_500I!E37</f>
-        <v>20.5</v>
+        <f aca="false">500G_500I!I37</f>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <f aca="false">500G_500I!F37</f>
-        <v>1252.59487586667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+        <f aca="false">500G_500I!M37</f>
+        <v>30.5510945333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="C12" s="1" t="n">
         <f aca="false">500G_500I!C38</f>
         <v>0.49684187811803</v>
@@ -485,11 +496,11 @@
         <v>0.0228337814375679</v>
       </c>
       <c r="F12" s="1" t="n">
-        <f aca="false">500G_500I!F38</f>
-        <v>147.331291409477</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+        <f aca="false">500G_500I!M38</f>
+        <v>3.59344613193845</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="B13" s="0" t="n">
         <v>1000</v>
       </c>
@@ -502,15 +513,15 @@
         <v>116.804570733333</v>
       </c>
       <c r="E13" s="1" t="n">
-        <f aca="false">500G_1000I!E37</f>
-        <v>20.5</v>
+        <f aca="false">500G_1000I!I37</f>
+        <v>0.499999999999996</v>
       </c>
       <c r="F13" s="1" t="n">
-        <f aca="false">500G_1000I!F37</f>
-        <v>2394.49370003333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+        <f aca="false">500G_1000I!M37</f>
+        <v>58.4022853666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="C14" s="1" t="n">
         <f aca="false">500G_1000I!C38</f>
         <v>0.392003401345788</v>
@@ -524,8 +535,8 @@
         <v>0.0166672537671026</v>
       </c>
       <c r="F14" s="1" t="n">
-        <f aca="false">500G_1000I!F38</f>
-        <v>277.68571533398</v>
+        <f aca="false">500G_1000I!M38</f>
+        <v>6.77282232521904</v>
       </c>
     </row>
   </sheetData>
@@ -547,18 +558,18 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A32" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
+      <selection activeCell="H36" activeCellId="0" pane="topLeft" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
@@ -586,7 +597,6 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="n">
@@ -611,11 +621,11 @@
       <c r="H2" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">B2*(C2-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">(C2-E$42)*B2</f>
         <v>1.2130215</v>
       </c>
@@ -643,11 +653,11 @@
       <c r="H3" s="4" t="n">
         <v>0.8594</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">B3*(C3-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">(C3-E$42)*B3</f>
         <v>3.524748</v>
       </c>
@@ -675,11 +685,11 @@
       <c r="H4" s="4" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">B4*(C4-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">(C4-E$42)*B4</f>
         <v>3.064102</v>
       </c>
@@ -707,11 +717,11 @@
       <c r="H5" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">B5*(C5-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">(C5-E$42)*B5</f>
         <v>0.804081</v>
       </c>
@@ -739,11 +749,11 @@
       <c r="H6" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">B6*(C6-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">(C6-E$42)*B6</f>
         <v>2.5080085</v>
       </c>
@@ -771,11 +781,11 @@
       <c r="H7" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">B7*(C7-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">(C7-E$42)*B7</f>
         <v>2.0925595</v>
       </c>
@@ -803,11 +813,11 @@
       <c r="H8" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">B8*(C8-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">(C8-E$42)*B8</f>
         <v>8.335137</v>
       </c>
@@ -835,11 +845,11 @@
       <c r="H9" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">B9*(C9-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <f aca="false">(C9-E$42)*B9</f>
         <v>2.6333195</v>
       </c>
@@ -867,11 +877,11 @@
       <c r="H10" s="4" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">B10*(C10-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">(C10-E$42)*B10</f>
         <v>1.498883</v>
       </c>
@@ -899,11 +909,11 @@
       <c r="H11" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">B11*(C11-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <f aca="false">(C11-E$42)*B11</f>
         <v>1.328251</v>
       </c>
@@ -931,11 +941,11 @@
       <c r="H12" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">B12*(C12-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <f aca="false">(C12-E$42)*B12</f>
         <v>3.157534</v>
       </c>
@@ -963,11 +973,11 @@
       <c r="H13" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">B13*(C13-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <f aca="false">(C13-E$42)*B13</f>
         <v>2.8899055</v>
       </c>
@@ -995,11 +1005,11 @@
       <c r="H14" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">B14*(C14-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <f aca="false">(C14-E$42)*B14</f>
         <v>3.957864</v>
       </c>
@@ -1027,11 +1037,11 @@
       <c r="H15" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <f aca="false">B15*(C15-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <f aca="false">(C15-E$42)*B15</f>
         <v>7.022748</v>
       </c>
@@ -1059,11 +1069,11 @@
       <c r="H16" s="4" t="n">
         <v>0.8281</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <f aca="false">B16*(C16-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <f aca="false">(C16-E$42)*B16</f>
         <v>5.7082</v>
       </c>
@@ -1091,11 +1101,11 @@
       <c r="H17" s="4" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <f aca="false">B17*(C17-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <f aca="false">(C17-E$42)*B17</f>
         <v>3.1015965</v>
       </c>
@@ -1123,11 +1133,11 @@
       <c r="H18" s="4" t="n">
         <v>0.7812</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <f aca="false">B18*(C18-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <f aca="false">(C18-E$42)*B18</f>
         <v>1.1960245</v>
       </c>
@@ -1155,11 +1165,11 @@
       <c r="H19" s="4" t="n">
         <v>0.7812</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <f aca="false">B19*(C19-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <f aca="false">(C19-E$42)*B19</f>
         <v>2.801802</v>
       </c>
@@ -1187,11 +1197,11 @@
       <c r="H20" s="4" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <f aca="false">B20*(C20-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <f aca="false">(C20-E$42)*B20</f>
         <v>2.6643485</v>
       </c>
@@ -1219,11 +1229,11 @@
       <c r="H21" s="4" t="n">
         <v>0.9219</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <f aca="false">B21*(C21-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <f aca="false">(C21-E$42)*B21</f>
         <v>19.2817155</v>
       </c>
@@ -1251,11 +1261,11 @@
       <c r="H22" s="4" t="n">
         <v>0.8438</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">B22*(C22-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <f aca="false">(C22-E$42)*B22</f>
         <v>5.432531</v>
       </c>
@@ -1283,11 +1293,11 @@
       <c r="H23" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <f aca="false">B23*(C23-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <f aca="false">(C23-E$42)*B23</f>
         <v>9.9641745</v>
       </c>
@@ -1315,11 +1325,11 @@
       <c r="H24" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <f aca="false">B24*(C24-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <f aca="false">(C24-E$42)*B24</f>
         <v>1.859234</v>
       </c>
@@ -1347,11 +1357,11 @@
       <c r="H25" s="4" t="n">
         <v>0.7812</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <f aca="false">B25*(C25-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <f aca="false">(C25-E$42)*B25</f>
         <v>1.906352</v>
       </c>
@@ -1379,11 +1389,11 @@
       <c r="H26" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="2" t="n">
         <f aca="false">B26*(C26-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <f aca="false">(C26-E$42)*B26</f>
         <v>2.814799</v>
       </c>
@@ -1411,11 +1421,11 @@
       <c r="H27" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <f aca="false">B27*(C27-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <f aca="false">(C27-E$42)*B27</f>
         <v>1.6683155</v>
       </c>
@@ -1443,11 +1453,11 @@
       <c r="H28" s="4" t="n">
         <v>0.8438</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <f aca="false">B28*(C28-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <f aca="false">(C28-E$42)*B28</f>
         <v>2.1701455</v>
       </c>
@@ -1475,11 +1485,11 @@
       <c r="H29" s="4" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <f aca="false">B29*(C29-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="2" t="n">
         <f aca="false">(C29-E$42)*B29</f>
         <v>2.7139465</v>
       </c>
@@ -1507,11 +1517,11 @@
       <c r="H30" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <f aca="false">B30*(C30-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <f aca="false">(C30-E$42)*B30</f>
         <v>2.2031265</v>
       </c>
@@ -1539,11 +1549,11 @@
       <c r="H31" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <f aca="false">B31*(C31-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <f aca="false">(C31-E$42)*B31</f>
         <v>7.0528815</v>
       </c>
@@ -1583,10 +1593,17 @@
       <c r="F36" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">E42</f>
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false">AVERAGE(G2:G31)</f>
@@ -1604,6 +1621,17 @@
         <f aca="false">AVERAGE(D2:D31)</f>
         <v>159.311452516667</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">E37-I36</f>
+        <v>0.500000000000004</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">I37*D37</f>
+        <v>3.88564518333336</v>
+      </c>
       <c r="M37" s="1" t="n">
         <f aca="false">AVERAGE(M2:M31)</f>
         <v>3.88564518333333</v>
@@ -1611,7 +1639,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">STDEVP(G2:G31)/SQRT(COUNT(G2:G31))</f>
@@ -1638,22 +1666,22 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -1670,11 +1698,11 @@
         <f aca="false">F42-E42</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <f aca="false">(($G$42/1000)*($B$33/3600))</f>
         <v>3.23803765277778E-005</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <f aca="false">$G$42*$B$33</f>
         <v>116.5693555</v>
       </c>
@@ -1702,10 +1730,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="10"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="11"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1727,18 +1755,18 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A23" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A38" activeCellId="0" pane="topLeft" sqref="A38"/>
+      <selection activeCell="H36" activeCellId="0" pane="topLeft" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
@@ -1766,7 +1794,6 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="n">
@@ -1788,14 +1815,14 @@
       <c r="G2" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="H2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <f aca="false">B2*(C2-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">(C2-E$42)*B2</f>
         <v>2.3815205</v>
       </c>
@@ -1820,14 +1847,14 @@
       <c r="G3" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="13" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">B3*(C3-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">(C3-E$42)*B3</f>
         <v>8.0053255</v>
       </c>
@@ -1852,14 +1879,14 @@
       <c r="G4" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">B4*(C4-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">(C4-E$42)*B4</f>
         <v>5.967525</v>
       </c>
@@ -1884,14 +1911,14 @@
       <c r="G5" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="13" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">B5*(C5-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">(C5-E$42)*B5</f>
         <v>4.075872</v>
       </c>
@@ -1916,14 +1943,14 @@
       <c r="G6" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">B6*(C6-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">(C6-E$42)*B6</f>
         <v>12.391807</v>
       </c>
@@ -1948,14 +1975,14 @@
       <c r="G7" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="13" t="n">
         <v>0.9844</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">B7*(C7-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">(C7-E$42)*B7</f>
         <v>11.0616545</v>
       </c>
@@ -1980,14 +2007,14 @@
       <c r="G8" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">B8*(C8-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">(C8-E$42)*B8</f>
         <v>12.9400425</v>
       </c>
@@ -2012,14 +2039,14 @@
       <c r="G9" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="13" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">B9*(C9-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <f aca="false">(C9-E$42)*B9</f>
         <v>8.03296</v>
       </c>
@@ -2044,14 +2071,14 @@
       <c r="G10" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="13" t="n">
         <v>0.9219</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">B10*(C10-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">(C10-E$42)*B10</f>
         <v>7.9757315</v>
       </c>
@@ -2076,14 +2103,14 @@
       <c r="G11" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="13" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">B11*(C11-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <f aca="false">(C11-E$42)*B11</f>
         <v>12.504282</v>
       </c>
@@ -2108,14 +2135,14 @@
       <c r="G12" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="13" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">B12*(C12-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <f aca="false">(C12-E$42)*B12</f>
         <v>7.955042</v>
       </c>
@@ -2140,14 +2167,14 @@
       <c r="G13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="13" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">B13*(C13-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <f aca="false">(C13-E$42)*B13</f>
         <v>12.862103</v>
       </c>
@@ -2172,14 +2199,14 @@
       <c r="G14" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="13" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">B14*(C14-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <f aca="false">(C14-E$42)*B14</f>
         <v>16.8976295</v>
       </c>
@@ -2204,14 +2231,14 @@
       <c r="G15" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="13" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <f aca="false">B15*(C15-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <f aca="false">(C15-E$42)*B15</f>
         <v>7.27643</v>
       </c>
@@ -2236,14 +2263,14 @@
       <c r="G16" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="H16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="n">
         <f aca="false">B16*(C16-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <f aca="false">(C16-E$42)*B16</f>
         <v>4.839211</v>
       </c>
@@ -2268,14 +2295,14 @@
       <c r="G17" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <f aca="false">B17*(C17-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <f aca="false">(C17-E$42)*B17</f>
         <v>7.570335</v>
       </c>
@@ -2300,14 +2327,14 @@
       <c r="G18" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <v>0.8438</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <f aca="false">B18*(C18-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <f aca="false">(C18-E$42)*B18</f>
         <v>11.756058</v>
       </c>
@@ -2332,14 +2359,14 @@
       <c r="G19" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="0" t="n">
+      <c r="H19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2" t="n">
         <f aca="false">B19*(C19-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <f aca="false">(C19-E$42)*B19</f>
         <v>11.6086745</v>
       </c>
@@ -2364,14 +2391,14 @@
       <c r="G20" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="0" t="n">
+      <c r="H20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2" t="n">
         <f aca="false">B20*(C20-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <f aca="false">(C20-E$42)*B20</f>
         <v>6.284376</v>
       </c>
@@ -2396,14 +2423,14 @@
       <c r="G21" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <f aca="false">B21*(C21-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <f aca="false">(C21-E$42)*B21</f>
         <v>3.9346895</v>
       </c>
@@ -2428,14 +2455,14 @@
       <c r="G22" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">B22*(C22-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <f aca="false">(C22-E$42)*B22</f>
         <v>11.156725</v>
       </c>
@@ -2460,14 +2487,14 @@
       <c r="G23" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="H23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="2" t="n">
         <f aca="false">B23*(C23-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <f aca="false">(C23-E$42)*B23</f>
         <v>0.433157</v>
       </c>
@@ -2492,14 +2519,14 @@
       <c r="G24" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="13" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <f aca="false">B24*(C24-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <f aca="false">(C24-E$42)*B24</f>
         <v>35.7124975</v>
       </c>
@@ -2524,14 +2551,14 @@
       <c r="G25" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <f aca="false">B25*(C25-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <f aca="false">(C25-E$42)*B25</f>
         <v>11.754968</v>
       </c>
@@ -2556,14 +2583,14 @@
       <c r="G26" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="0" t="n">
+      <c r="H26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="2" t="n">
         <f aca="false">B26*(C26-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <f aca="false">(C26-E$42)*B26</f>
         <v>4.2393135</v>
       </c>
@@ -2588,14 +2615,14 @@
       <c r="G27" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="13" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <f aca="false">B27*(C27-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <f aca="false">(C27-E$42)*B27</f>
         <v>12.3823115</v>
       </c>
@@ -2620,14 +2647,14 @@
       <c r="G28" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="13" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <f aca="false">B28*(C28-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <f aca="false">(C28-E$42)*B28</f>
         <v>4.2271015</v>
       </c>
@@ -2652,14 +2679,14 @@
       <c r="G29" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H29" s="12" t="n">
+      <c r="H29" s="13" t="n">
         <v>0.875</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <f aca="false">B29*(C29-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="2" t="n">
         <f aca="false">(C29-E$42)*B29</f>
         <v>11.193148</v>
       </c>
@@ -2684,14 +2711,14 @@
       <c r="G30" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="13" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <f aca="false">B30*(C30-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <f aca="false">(C30-E$42)*B30</f>
         <v>23.1121705</v>
       </c>
@@ -2716,14 +2743,14 @@
       <c r="G31" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="13" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <f aca="false">B31*(C31-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <f aca="false">(C31-E$42)*B31</f>
         <v>8.110429</v>
       </c>
@@ -2763,10 +2790,17 @@
       <c r="F36" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">E42</f>
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false">AVERAGE(G2:G31)</f>
@@ -2784,6 +2818,17 @@
         <f aca="false">AVERAGE(D2:D31)</f>
         <v>408.145557016667</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">E37-I36</f>
+        <v>0.499999999999996</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">I37*D37</f>
+        <v>9.95476968333326</v>
+      </c>
       <c r="M37" s="1" t="n">
         <f aca="false">AVERAGE(M2:M31)</f>
         <v>9.95476968333334</v>
@@ -2791,7 +2836,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">STDEVP(G2:G31)/SQRT(COUNT(G2:G31))</f>
@@ -2818,22 +2863,22 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2850,11 +2895,11 @@
         <f aca="false">F42-E42</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <f aca="false">(($G$42/1000)*($B$33/3600))</f>
         <v>8.29564140277778E-005</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <f aca="false">$G$42*$B$33</f>
         <v>298.6430905</v>
       </c>
@@ -2882,10 +2927,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="10"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="11"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2907,18 +2952,18 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B21" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B38" activeCellId="0" pane="topLeft" sqref="B38"/>
+      <selection activeCell="H36" activeCellId="0" pane="topLeft" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
@@ -2946,7 +2991,6 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="n">
@@ -2962,7 +3006,7 @@
       <c r="E2" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="14" t="n">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="n">
@@ -2971,11 +3015,11 @@
       <c r="H2" s="4" t="n">
         <v>0.9219</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">B2*(C2-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">(C2-E$42)*B2</f>
         <v>15.409954</v>
       </c>
@@ -2994,7 +3038,7 @@
       <c r="E3" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="n">
@@ -3003,11 +3047,11 @@
       <c r="H3" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">B3*(C3-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">(C3-E$42)*B3</f>
         <v>12.573528</v>
       </c>
@@ -3026,7 +3070,7 @@
       <c r="E4" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="n">
@@ -3035,11 +3079,11 @@
       <c r="H4" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">B4*(C4-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">(C4-E$42)*B4</f>
         <v>36.23088</v>
       </c>
@@ -3058,7 +3102,7 @@
       <c r="E5" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
@@ -3067,11 +3111,11 @@
       <c r="H5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">B5*(C5-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">(C5-E$42)*B5</f>
         <v>31.7568345</v>
       </c>
@@ -3090,7 +3134,7 @@
       <c r="E6" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="4" t="n">
@@ -3099,11 +3143,11 @@
       <c r="H6" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">B6*(C6-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">(C6-E$42)*B6</f>
         <v>22.5449425</v>
       </c>
@@ -3122,7 +3166,7 @@
       <c r="E7" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
@@ -3131,11 +3175,11 @@
       <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">B7*(C7-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">(C7-E$42)*B7</f>
         <v>11.8554155</v>
       </c>
@@ -3154,7 +3198,7 @@
       <c r="E8" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="n">
@@ -3163,11 +3207,11 @@
       <c r="H8" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">B8*(C8-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">(C8-E$42)*B8</f>
         <v>23.87577</v>
       </c>
@@ -3186,7 +3230,7 @@
       <c r="E9" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="G9" s="4" t="n">
@@ -3195,11 +3239,11 @@
       <c r="H9" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">B9*(C9-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <f aca="false">(C9-E$42)*B9</f>
         <v>30.6206955</v>
       </c>
@@ -3218,7 +3262,7 @@
       <c r="E10" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
@@ -3227,11 +3271,11 @@
       <c r="H10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">B10*(C10-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">(C10-E$42)*B10</f>
         <v>1.6931795</v>
       </c>
@@ -3250,7 +3294,7 @@
       <c r="E11" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="14" t="n">
         <v>7</v>
       </c>
       <c r="G11" s="4" t="n">
@@ -3259,11 +3303,11 @@
       <c r="H11" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">B11*(C11-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <f aca="false">(C11-E$42)*B11</f>
         <v>20.708249</v>
       </c>
@@ -3282,7 +3326,7 @@
       <c r="E12" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="n">
@@ -3291,11 +3335,11 @@
       <c r="H12" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">B12*(C12-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <f aca="false">(C12-E$42)*B12</f>
         <v>19.3600785</v>
       </c>
@@ -3314,7 +3358,7 @@
       <c r="E13" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="n">
@@ -3323,11 +3367,11 @@
       <c r="H13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">B13*(C13-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <f aca="false">(C13-E$42)*B13</f>
         <v>10.190058</v>
       </c>
@@ -3346,7 +3390,7 @@
       <c r="E14" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G14" s="4" t="n">
@@ -3355,11 +3399,11 @@
       <c r="H14" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">B14*(C14-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <f aca="false">(C14-E$42)*B14</f>
         <v>21.2082025</v>
       </c>
@@ -3378,7 +3422,7 @@
       <c r="E15" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="n">
@@ -3387,11 +3431,11 @@
       <c r="H15" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <f aca="false">B15*(C15-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <f aca="false">(C15-E$42)*B15</f>
         <v>19.5569205</v>
       </c>
@@ -3410,7 +3454,7 @@
       <c r="E16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="n">
@@ -3419,11 +3463,11 @@
       <c r="H16" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <f aca="false">B16*(C16-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <f aca="false">(C16-E$42)*B16</f>
         <v>21.8637045</v>
       </c>
@@ -3442,7 +3486,7 @@
       <c r="E17" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="14" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="4" t="n">
@@ -3451,11 +3495,11 @@
       <c r="H17" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <f aca="false">B17*(C17-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <f aca="false">(C17-E$42)*B17</f>
         <v>17.914713</v>
       </c>
@@ -3474,7 +3518,7 @@
       <c r="E18" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
@@ -3483,11 +3527,11 @@
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <f aca="false">B18*(C18-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <f aca="false">(C18-E$42)*B18</f>
         <v>7.231605</v>
       </c>
@@ -3506,7 +3550,7 @@
       <c r="E19" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G19" s="4" t="n">
@@ -3515,11 +3559,11 @@
       <c r="H19" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <f aca="false">B19*(C19-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <f aca="false">(C19-E$42)*B19</f>
         <v>35.2891985</v>
       </c>
@@ -3538,7 +3582,7 @@
       <c r="E20" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F20" s="13" t="n">
+      <c r="F20" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G20" s="4" t="n">
@@ -3547,11 +3591,11 @@
       <c r="H20" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <f aca="false">B20*(C20-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <f aca="false">(C20-E$42)*B20</f>
         <v>15.788189</v>
       </c>
@@ -3570,7 +3614,7 @@
       <c r="E21" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="n">
@@ -3579,11 +3623,11 @@
       <c r="H21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <f aca="false">B21*(C21-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <f aca="false">(C21-E$42)*B21</f>
         <v>18.658762</v>
       </c>
@@ -3602,7 +3646,7 @@
       <c r="E22" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G22" s="4" t="n">
@@ -3611,11 +3655,11 @@
       <c r="H22" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">B22*(C22-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <f aca="false">(C22-E$42)*B22</f>
         <v>24.98188</v>
       </c>
@@ -3634,7 +3678,7 @@
       <c r="E23" s="2" t="n">
         <v>484</v>
       </c>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="n">
@@ -3643,11 +3687,11 @@
       <c r="H23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <f aca="false">B23*(C23-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <f aca="false">(C23-E$42)*B23</f>
         <v>44.248745</v>
       </c>
@@ -3666,7 +3710,7 @@
       <c r="E24" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="4" t="n">
@@ -3675,11 +3719,11 @@
       <c r="H24" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <f aca="false">B24*(C24-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <f aca="false">(C24-E$42)*B24</f>
         <v>49.804322</v>
       </c>
@@ -3698,7 +3742,7 @@
       <c r="E25" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G25" s="4" t="n">
@@ -3707,11 +3751,11 @@
       <c r="H25" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <f aca="false">B25*(C25-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <f aca="false">(C25-E$42)*B25</f>
         <v>24.1375965</v>
       </c>
@@ -3730,7 +3774,7 @@
       <c r="E26" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="14" t="n">
         <v>3</v>
       </c>
       <c r="G26" s="4" t="n">
@@ -3739,11 +3783,11 @@
       <c r="H26" s="4" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="2" t="n">
         <f aca="false">B26*(C26-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <f aca="false">(C26-E$42)*B26</f>
         <v>43.772782</v>
       </c>
@@ -3762,7 +3806,7 @@
       <c r="E27" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="4" t="n">
@@ -3771,11 +3815,11 @@
       <c r="H27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <f aca="false">B27*(C27-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <f aca="false">(C27-E$42)*B27</f>
         <v>10.524528</v>
       </c>
@@ -3794,7 +3838,7 @@
       <c r="E28" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="n">
@@ -3803,11 +3847,11 @@
       <c r="H28" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <f aca="false">B28*(C28-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <f aca="false">(C28-E$42)*B28</f>
         <v>23.3709635</v>
       </c>
@@ -3826,7 +3870,7 @@
       <c r="E29" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F29" s="13" t="n">
+      <c r="F29" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G29" s="4" t="n">
@@ -3835,11 +3879,11 @@
       <c r="H29" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <f aca="false">B29*(C29-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="2" t="n">
         <f aca="false">(C29-E$42)*B29</f>
         <v>19.5489715</v>
       </c>
@@ -3858,7 +3902,7 @@
       <c r="E30" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G30" s="4" t="n">
@@ -3867,11 +3911,11 @@
       <c r="H30" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <f aca="false">B30*(C30-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <f aca="false">(C30-E$42)*B30</f>
         <v>31.416624</v>
       </c>
@@ -3890,7 +3934,7 @@
       <c r="E31" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="F31" s="13" t="n">
+      <c r="F31" s="14" t="n">
         <v>7</v>
       </c>
       <c r="G31" s="4" t="n">
@@ -3899,11 +3943,11 @@
       <c r="H31" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <f aca="false">B31*(C31-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <f aca="false">(C31-E$42)*B31</f>
         <v>27.121063</v>
       </c>
@@ -3943,10 +3987,17 @@
       <c r="F36" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">E42</f>
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false">AVERAGE(G2:G31)</f>
@@ -3964,6 +4015,17 @@
         <f aca="false">AVERAGE(D2:D31)</f>
         <v>947.45308585</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">E37-I36</f>
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">I37*D37</f>
+        <v>23.10861185</v>
+      </c>
       <c r="M37" s="1" t="n">
         <f aca="false">AVERAGE(M2:M31)</f>
         <v>23.10861185</v>
@@ -3971,7 +4033,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">STDEVP(G2:G31)/SQRT(COUNT(G2:G31))</f>
@@ -3998,22 +4060,22 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -4030,11 +4092,11 @@
         <f aca="false">F42-E42</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <f aca="false">(($G$42/1000)*($B$33/3600))</f>
         <v>0.000192571765416667</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <f aca="false">$G$42*$B$33</f>
         <v>693.2583555</v>
       </c>
@@ -4062,10 +4124,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="10"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="11"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4086,19 +4148,19 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A6" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A23" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H36" activeCellId="0" pane="topLeft" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
@@ -4126,7 +4188,6 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="n">
@@ -4151,11 +4212,11 @@
       <c r="H2" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">B2*(C2-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">(C2-E$42)*B2</f>
         <v>29.3326155</v>
       </c>
@@ -4183,11 +4244,11 @@
       <c r="H3" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">B3*(C3-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">(C3-E$42)*B3</f>
         <v>52.069007</v>
       </c>
@@ -4215,11 +4276,11 @@
       <c r="H4" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">B4*(C4-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">(C4-E$42)*B4</f>
         <v>29.3045215</v>
       </c>
@@ -4247,11 +4308,11 @@
       <c r="H5" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">B5*(C5-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">(C5-E$42)*B5</f>
         <v>34.070751</v>
       </c>
@@ -4279,11 +4340,11 @@
       <c r="H6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">B6*(C6-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">(C6-E$42)*B6</f>
         <v>2.855653</v>
       </c>
@@ -4311,11 +4372,11 @@
       <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">B7*(C7-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">(C7-E$42)*B7</f>
         <v>30.3648815</v>
       </c>
@@ -4343,11 +4404,11 @@
       <c r="H8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">B8*(C8-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">(C8-E$42)*B8</f>
         <v>12.3728965</v>
       </c>
@@ -4375,11 +4436,11 @@
       <c r="H9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">B9*(C9-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <f aca="false">(C9-E$42)*B9</f>
         <v>5.281662</v>
       </c>
@@ -4407,11 +4468,11 @@
       <c r="H10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">B10*(C10-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">(C10-E$42)*B10</f>
         <v>10.3014535</v>
       </c>
@@ -4439,11 +4500,11 @@
       <c r="H11" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">B11*(C11-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <f aca="false">(C11-E$42)*B11</f>
         <v>18.014332</v>
       </c>
@@ -4471,11 +4532,11 @@
       <c r="H12" s="4" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">B12*(C12-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <f aca="false">(C12-E$42)*B12</f>
         <v>44.7635345</v>
       </c>
@@ -4503,11 +4564,11 @@
       <c r="H13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">B13*(C13-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <f aca="false">(C13-E$42)*B13</f>
         <v>6.356004</v>
       </c>
@@ -4535,11 +4596,11 @@
       <c r="H14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">B14*(C14-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <f aca="false">(C14-E$42)*B14</f>
         <v>7.606999</v>
       </c>
@@ -4567,11 +4628,11 @@
       <c r="H15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <f aca="false">B15*(C15-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <f aca="false">(C15-E$42)*B15</f>
         <v>37.609253</v>
       </c>
@@ -4599,11 +4660,11 @@
       <c r="H16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <f aca="false">B16*(C16-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <f aca="false">(C16-E$42)*B16</f>
         <v>13.413215</v>
       </c>
@@ -4631,11 +4692,11 @@
       <c r="H17" s="4" t="n">
         <v>0.9219</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <f aca="false">B17*(C17-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <f aca="false">(C17-E$42)*B17</f>
         <v>15.849077</v>
       </c>
@@ -4663,11 +4724,11 @@
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <f aca="false">B18*(C18-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <f aca="false">(C18-E$42)*B18</f>
         <v>3.3819455</v>
       </c>
@@ -4695,11 +4756,11 @@
       <c r="H19" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <f aca="false">B19*(C19-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <f aca="false">(C19-E$42)*B19</f>
         <v>45.302956</v>
       </c>
@@ -4727,11 +4788,11 @@
       <c r="H20" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <f aca="false">B20*(C20-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <f aca="false">(C20-E$42)*B20</f>
         <v>38.646048</v>
       </c>
@@ -4759,11 +4820,11 @@
       <c r="H21" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <f aca="false">B21*(C21-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <f aca="false">(C21-E$42)*B21</f>
         <v>79.088355</v>
       </c>
@@ -4791,11 +4852,11 @@
       <c r="H22" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">B22*(C22-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <f aca="false">(C22-E$42)*B22</f>
         <v>33.964194</v>
       </c>
@@ -4823,11 +4884,11 @@
       <c r="H23" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <f aca="false">B23*(C23-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <f aca="false">(C23-E$42)*B23</f>
         <v>25.799534</v>
       </c>
@@ -4855,11 +4916,11 @@
       <c r="H24" s="4" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <f aca="false">B24*(C24-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <f aca="false">(C24-E$42)*B24</f>
         <v>60.9696395</v>
       </c>
@@ -4887,11 +4948,11 @@
       <c r="H25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <f aca="false">B25*(C25-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <f aca="false">(C25-E$42)*B25</f>
         <v>56.134331</v>
       </c>
@@ -4919,11 +4980,11 @@
       <c r="H26" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="2" t="n">
         <f aca="false">B26*(C26-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <f aca="false">(C26-E$42)*B26</f>
         <v>44.6899995</v>
       </c>
@@ -4951,11 +5012,11 @@
       <c r="H27" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <f aca="false">B27*(C27-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <f aca="false">(C27-E$42)*B27</f>
         <v>11.8765555</v>
       </c>
@@ -4983,11 +5044,11 @@
       <c r="H28" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <f aca="false">B28*(C28-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <f aca="false">(C28-E$42)*B28</f>
         <v>57.4707975</v>
       </c>
@@ -5015,11 +5076,11 @@
       <c r="H29" s="4" t="n">
         <v>0.9062</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <f aca="false">B29*(C29-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="2" t="n">
         <f aca="false">(C29-E$42)*B29</f>
         <v>53.9384565</v>
       </c>
@@ -5047,11 +5108,11 @@
       <c r="H30" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <f aca="false">B30*(C30-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <f aca="false">(C30-E$42)*B30</f>
         <v>36.2274545</v>
       </c>
@@ -5079,11 +5140,11 @@
       <c r="H31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <f aca="false">B31*(C31-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <f aca="false">(C31-E$42)*B31</f>
         <v>19.4767135</v>
       </c>
@@ -5123,10 +5184,17 @@
       <c r="F36" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">E42</f>
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false">AVERAGE(G2:G31)</f>
@@ -5144,6 +5212,17 @@
         <f aca="false">AVERAGE(D2:D31)</f>
         <v>1252.59487586667</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">E37-I36</f>
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">I37*D37</f>
+        <v>30.5510945333333</v>
+      </c>
       <c r="M37" s="1" t="n">
         <f aca="false">AVERAGE(M2:M31)</f>
         <v>30.5510945333333</v>
@@ -5151,7 +5230,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">STDEVP(G2:G31)/SQRT(COUNT(G2:G31))</f>
@@ -5178,22 +5257,22 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -5210,11 +5289,11 @@
         <f aca="false">F42-E42</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <f aca="false">(($G$42/1000)*($B$33/3600))</f>
         <v>0.000254592454444444</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <f aca="false">$G$42*$B$33</f>
         <v>916.532836</v>
       </c>
@@ -5242,10 +5321,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="10"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="11"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5266,19 +5345,19 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M3" activeCellId="0" pane="topLeft" sqref="M3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H36" activeCellId="0" pane="topLeft" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.63137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
@@ -5306,7 +5385,6 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="B2" s="2" t="n">
@@ -5331,11 +5409,11 @@
       <c r="H2" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">B2*(C2-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">(C2-E$42)*B2</f>
         <v>93.9653305</v>
       </c>
@@ -5363,11 +5441,11 @@
       <c r="H3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">B3*(C3-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">(C3-E$42)*B3</f>
         <v>58.4791895</v>
       </c>
@@ -5395,11 +5473,11 @@
       <c r="H4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">B4*(C4-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">(C4-E$42)*B4</f>
         <v>3.256387</v>
       </c>
@@ -5427,11 +5505,11 @@
       <c r="H5" s="4" t="n">
         <v>0.9844</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">B5*(C5-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <f aca="false">(C5-E$42)*B5</f>
         <v>98.68711</v>
       </c>
@@ -5459,11 +5537,11 @@
       <c r="H6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">B6*(C6-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">(C6-E$42)*B6</f>
         <v>63.016315</v>
       </c>
@@ -5491,11 +5569,11 @@
       <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">B7*(C7-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <f aca="false">(C7-E$42)*B7</f>
         <v>16.8445815</v>
       </c>
@@ -5523,11 +5601,11 @@
       <c r="H8" s="4" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">B8*(C8-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <f aca="false">(C8-E$42)*B8</f>
         <v>157.1241045</v>
       </c>
@@ -5555,11 +5633,11 @@
       <c r="H9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">B9*(C9-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <f aca="false">(C9-E$42)*B9</f>
         <v>47.7629815</v>
       </c>
@@ -5587,11 +5665,11 @@
       <c r="H10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">B10*(C10-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="2" t="n">
         <f aca="false">(C10-E$42)*B10</f>
         <v>16.035959</v>
       </c>
@@ -5619,11 +5697,11 @@
       <c r="H11" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">B11*(C11-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="2" t="n">
         <f aca="false">(C11-E$42)*B11</f>
         <v>82.542546</v>
       </c>
@@ -5651,11 +5729,11 @@
       <c r="H12" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">B12*(C12-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="2" t="n">
         <f aca="false">(C12-E$42)*B12</f>
         <v>37.6648745</v>
       </c>
@@ -5683,11 +5761,11 @@
       <c r="H13" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">B13*(C13-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="2" t="n">
         <f aca="false">(C13-E$42)*B13</f>
         <v>96.8203885</v>
       </c>
@@ -5715,11 +5793,11 @@
       <c r="H14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">B14*(C14-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="2" t="n">
         <f aca="false">(C14-E$42)*B14</f>
         <v>15.5034785</v>
       </c>
@@ -5747,11 +5825,11 @@
       <c r="H15" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="2" t="n">
         <f aca="false">B15*(C15-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="2" t="n">
         <f aca="false">(C15-E$42)*B15</f>
         <v>77.8479745</v>
       </c>
@@ -5779,11 +5857,11 @@
       <c r="H16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="2" t="n">
         <f aca="false">B16*(C16-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="2" t="n">
         <f aca="false">(C16-E$42)*B16</f>
         <v>36.9150095</v>
       </c>
@@ -5811,11 +5889,11 @@
       <c r="H17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="2" t="n">
         <f aca="false">B17*(C17-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="2" t="n">
         <f aca="false">(C17-E$42)*B17</f>
         <v>36.081458</v>
       </c>
@@ -5843,11 +5921,11 @@
       <c r="H18" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="2" t="n">
         <f aca="false">B18*(C18-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="2" t="n">
         <f aca="false">(C18-E$42)*B18</f>
         <v>52.669709</v>
       </c>
@@ -5875,11 +5953,11 @@
       <c r="H19" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="2" t="n">
         <f aca="false">B19*(C19-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="2" t="n">
         <f aca="false">(C19-E$42)*B19</f>
         <v>54.753784</v>
       </c>
@@ -5907,11 +5985,11 @@
       <c r="H20" s="4" t="n">
         <v>0.9375</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="2" t="n">
         <f aca="false">B20*(C20-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="2" t="n">
         <f aca="false">(C20-E$42)*B20</f>
         <v>37.889525</v>
       </c>
@@ -5939,11 +6017,11 @@
       <c r="H21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="2" t="n">
         <f aca="false">B21*(C21-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="2" t="n">
         <f aca="false">(C21-E$42)*B21</f>
         <v>36.606341</v>
       </c>
@@ -5971,11 +6049,11 @@
       <c r="H22" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">B22*(C22-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="2" t="n">
         <f aca="false">(C22-E$42)*B22</f>
         <v>97.7512575</v>
       </c>
@@ -6003,11 +6081,11 @@
       <c r="H23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="2" t="n">
         <f aca="false">B23*(C23-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="2" t="n">
         <f aca="false">(C23-E$42)*B23</f>
         <v>67.625888</v>
       </c>
@@ -6035,11 +6113,11 @@
       <c r="H24" s="4" t="n">
         <v>0.9531</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="2" t="n">
         <f aca="false">B24*(C24-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="2" t="n">
         <f aca="false">(C24-E$42)*B24</f>
         <v>55.586011</v>
       </c>
@@ -6067,11 +6145,11 @@
       <c r="H25" s="4" t="n">
         <v>0.9688</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="2" t="n">
         <f aca="false">B25*(C25-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="2" t="n">
         <f aca="false">(C25-E$42)*B25</f>
         <v>156.0813085</v>
       </c>
@@ -6099,11 +6177,11 @@
       <c r="H26" s="4" t="n">
         <v>0.8906</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="2" t="n">
         <f aca="false">B26*(C26-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="2" t="n">
         <f aca="false">(C26-E$42)*B26</f>
         <v>73.8055095</v>
       </c>
@@ -6131,11 +6209,11 @@
       <c r="H27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="2" t="n">
         <f aca="false">B27*(C27-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="2" t="n">
         <f aca="false">(C27-E$42)*B27</f>
         <v>46.7100005</v>
       </c>
@@ -6163,11 +6241,11 @@
       <c r="H28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="2" t="n">
         <f aca="false">B28*(C28-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="2" t="n">
         <f aca="false">(C28-E$42)*B28</f>
         <v>56.7466355</v>
       </c>
@@ -6195,11 +6273,11 @@
       <c r="H29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="2" t="n">
         <f aca="false">B29*(C29-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="2" t="n">
         <f aca="false">(C29-E$42)*B29</f>
         <v>23.545977</v>
       </c>
@@ -6227,11 +6305,11 @@
       <c r="H30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="2" t="n">
         <f aca="false">B30*(C30-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="2" t="n">
         <f aca="false">(C30-E$42)*B30</f>
         <v>9.8220505</v>
       </c>
@@ -6259,11 +6337,11 @@
       <c r="H31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="2" t="n">
         <f aca="false">B31*(C31-E$37)^2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="2" t="n">
         <f aca="false">(C31-E$42)*B31</f>
         <v>43.926876</v>
       </c>
@@ -6303,10 +6381,17 @@
       <c r="F36" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">E42</f>
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false">AVERAGE(G2:G31)</f>
@@ -6324,6 +6409,17 @@
         <f aca="false">AVERAGE(D2:D31)</f>
         <v>2394.49370003333</v>
       </c>
+      <c r="H37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">E37-I36</f>
+        <v>0.499999999999996</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">I37*D37</f>
+        <v>58.4022853666662</v>
+      </c>
       <c r="M37" s="1" t="n">
         <f aca="false">AVERAGE(M2:M31)</f>
         <v>58.4022853666667</v>
@@ -6331,7 +6427,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false">STDEVP(G2:G31)/SQRT(COUNT(G2:G31))</f>
@@ -6358,22 +6454,22 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -6390,11 +6486,11 @@
         <f aca="false">F42-E42</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="9" t="n">
         <f aca="false">(($G$42/1000)*($B$33/3600))</f>
         <v>0.000486685711388889</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <f aca="false">$G$42*$B$33</f>
         <v>1752.068561</v>
       </c>
@@ -6422,10 +6518,10 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="10"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66" s="11"/>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
